--- a/tables/regressions/interaction_models_english_speaker_interaction.xlsx
+++ b/tables/regressions/interaction_models_english_speaker_interaction.xlsx
@@ -1,21 +1,167 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrissoria/Documents/Research/us_international_ses/tables/regressions/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6EB3CA-219D-CC49-8791-A869A9EC2CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="780" yWindow="760" windowWidth="32700" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>Unadjusted</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>Unadjusted (Females Only)</t>
+  </si>
+  <si>
+    <t>Adjusted (Females Only)</t>
+  </si>
+  <si>
+    <t>Unadjusted (Males Only)</t>
+  </si>
+  <si>
+    <t>Adjusted (Males Only)</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>-0.074***
+(0.006)</t>
+  </si>
+  <si>
+    <t>-0.056***
+(0.005)</t>
+  </si>
+  <si>
+    <t>-0.078***
+(0.008)</t>
+  </si>
+  <si>
+    <t>-0.058***
+(0.007)</t>
+  </si>
+  <si>
+    <t>-0.069***
+(0.008)</t>
+  </si>
+  <si>
+    <t>-0.055***
+(0.008)</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>-0.027***
+(0.008)</t>
+  </si>
+  <si>
+    <t>-0.025***
+(0.008)</t>
+  </si>
+  <si>
+    <t>-0.025**
+(0.011)</t>
+  </si>
+  <si>
+    <t>-0.022**
+(0.01)</t>
+  </si>
+  <si>
+    <t>-0.038***
+(0.012)</t>
+  </si>
+  <si>
+    <t>-0.032***
+(0.011)</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>-0.093***
+(0.005)</t>
+  </si>
+  <si>
+    <t>-0.041***
+(0.005)</t>
+  </si>
+  <si>
+    <t>-0.085***
+(0.007)</t>
+  </si>
+  <si>
+    <t>-0.034***
+(0.007)</t>
+  </si>
+  <si>
+    <t>-0.101***
+(0.008)</t>
+  </si>
+  <si>
+    <t>-0.053***
+(0.007)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>187940</t>
+  </si>
+  <si>
+    <t>103395</t>
+  </si>
+  <si>
+    <t>84545</t>
+  </si>
+  <si>
+    <t>R-squared</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.139</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,10 +186,39 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -52,24 +227,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +301,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +335,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +370,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,251 +546,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.83203125" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>term</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unadjusted</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Adjusted</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unadjusted (Females Only)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Adjusted (Females Only)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Unadjusted (Males Only)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Adjusted (Males Only)</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cuba</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>-0.074***
-(0.006)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-0.056***
-(0.005)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-0.078***
-(0.008)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-0.058***
-(0.007)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-0.069***
-(0.008)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-0.055***
-(0.008)</t>
-        </is>
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Dominican Republic</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-0.027***
-(0.008)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-0.025***
-(0.008)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-0.025**
-(0.011)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-0.022**
-(0.01)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-0.038***
-(0.012)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-0.032***
-(0.011)</t>
-        </is>
+    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Puerto Rico</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>-0.093***
-(0.005)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-0.041***
-(0.005)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-0.085***
-(0.007)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-0.034***
-(0.007)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-0.101***
-(0.008)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-0.053***
-(0.007)</t>
-        </is>
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>187940</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>187940</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>103395</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>103395</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>84545</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>84545</t>
-        </is>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>R-squared</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.045</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.169</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.052</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.039</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.139</t>
-        </is>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
